--- a/ThermalModelTools/DataTable.xlsx
+++ b/ThermalModelTools/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/hen367_my_utexas_edu/Documents/01_RESEARCH/05_CMBS4/Cryogenic_Material_Properties/ThermalModelTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{4FF3C6EF-D2D9-458F-8841-74A2450AC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF3BE34-1ABF-4F27-9D46-D99B7F3ABB3F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{4FF3C6EF-D2D9-458F-8841-74A2450AC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95CE70B-230A-4D29-AF18-2FADCE7ED77E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4312526-4212-4BF0-9C9B-6BC141CB9020}"/>
   </bookViews>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="DataTable">Table1[]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -772,10 +785,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -821,17 +833,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1270,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323BECBF-3BA5-4E76-AAE7-D8B026EF5BCA}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="107" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,7 +1284,7 @@
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Table1[[#Headers],[Temperature '[K']]]</f>
         <v>Temperature [K]</v>
@@ -1290,12 +1292,8 @@
       <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A73">Table1[Temperature '[K']]</f>
         <v>0.1</v>
@@ -1304,12 +1302,8 @@
         <f t="array" ref="B2">IFERROR(INDEX(DataTable, ROW(A1), MATCH($B$1, data_table!$1:$1, 0)), "")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.15</v>
       </c>
@@ -1317,12 +1311,9 @@
         <f t="array" ref="B3">IFERROR(INDEX(DataTable, ROW(A2), MATCH($B$1, data_table!$1:$1, 0)), "")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -1330,12 +1321,8 @@
         <f t="array" ref="B4">IFERROR(INDEX(DataTable, ROW(A3), MATCH($B$1, data_table!$1:$1, 0)), "")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -1343,12 +1330,8 @@
         <f t="array" ref="B5">IFERROR(INDEX(DataTable, ROW(A4), MATCH($B$1, data_table!$1:$1, 0)), "")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.3</v>
       </c>
@@ -1356,12 +1339,8 @@
         <f t="array" ref="B6">IFERROR(INDEX(DataTable, ROW(A5), MATCH($B$1, data_table!$1:$1, 0)), "")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.35</v>
       </c>
@@ -1370,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.4</v>
       </c>
@@ -1379,7 +1358,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.45</v>
       </c>
@@ -1388,7 +1367,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -1397,7 +1376,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.55000000000000004</v>
       </c>
@@ -1406,7 +1385,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.6</v>
       </c>
@@ -1415,7 +1394,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -1424,7 +1403,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.7</v>
       </c>
@@ -1433,7 +1412,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.75</v>
       </c>
@@ -1442,7 +1421,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.8</v>
       </c>
@@ -1966,7 +1945,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B73">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19510,7 +19489,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:CA73">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
